--- a/Dashboard Sxc/shinySxc2/data.xlsx
+++ b/Dashboard Sxc/shinySxc2/data.xlsx
@@ -8,19 +8,31 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matia\OneDrive\Documentos\GitHub\shinySxc1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4A5748E-005B-4481-A5F6-72774160FA54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED4E0FDB-C98C-40E9-9BFC-A8A7CE038600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="85">
   <si>
     <t>Mision_organizacion</t>
   </si>
@@ -67,9 +79,6 @@
     <t>Act A</t>
   </si>
   <si>
-    <t>Santiago</t>
-  </si>
-  <si>
     <t>Proy 2</t>
   </si>
   <si>
@@ -82,9 +91,6 @@
     <t>Act B</t>
   </si>
   <si>
-    <t>Maipú</t>
-  </si>
-  <si>
     <t>Proy 3</t>
   </si>
   <si>
@@ -97,9 +103,6 @@
     <t>Act C</t>
   </si>
   <si>
-    <t>Chillán</t>
-  </si>
-  <si>
     <t>Org 2</t>
   </si>
   <si>
@@ -118,9 +121,6 @@
     <t>Act D</t>
   </si>
   <si>
-    <t>Coquimbo</t>
-  </si>
-  <si>
     <t>Proy 5</t>
   </si>
   <si>
@@ -133,9 +133,6 @@
     <t>Act E</t>
   </si>
   <si>
-    <t>Concepción</t>
-  </si>
-  <si>
     <t>Proy 6</t>
   </si>
   <si>
@@ -148,9 +145,6 @@
     <t>Act F</t>
   </si>
   <si>
-    <t>Talca</t>
-  </si>
-  <si>
     <t>Org 3</t>
   </si>
   <si>
@@ -169,9 +163,6 @@
     <t>Act G</t>
   </si>
   <si>
-    <t>Recoleta</t>
-  </si>
-  <si>
     <t>Proy 8</t>
   </si>
   <si>
@@ -184,9 +175,6 @@
     <t>Act H</t>
   </si>
   <si>
-    <t>Cabildo</t>
-  </si>
-  <si>
     <t>Proy 9</t>
   </si>
   <si>
@@ -199,9 +187,6 @@
     <t>Act I</t>
   </si>
   <si>
-    <t>Viña del Mar</t>
-  </si>
-  <si>
     <t>Proy 10</t>
   </si>
   <si>
@@ -214,9 +199,6 @@
     <t>Act J</t>
   </si>
   <si>
-    <t>Ancúd</t>
-  </si>
-  <si>
     <t>Nombre_organizacion</t>
   </si>
   <si>
@@ -260,6 +242,51 @@
   </si>
   <si>
     <t>Desarrollo social y vivienda</t>
+  </si>
+  <si>
+    <t>SANTIAGO</t>
+  </si>
+  <si>
+    <t>MAIPU</t>
+  </si>
+  <si>
+    <t>CHILLAN</t>
+  </si>
+  <si>
+    <t>COQUIMBO</t>
+  </si>
+  <si>
+    <t>CONCEPCION</t>
+  </si>
+  <si>
+    <t>TALCA</t>
+  </si>
+  <si>
+    <t>RECOLETA</t>
+  </si>
+  <si>
+    <t>CABILDO</t>
+  </si>
+  <si>
+    <t>VIÑA DEL MAR</t>
+  </si>
+  <si>
+    <t>ANCUD</t>
+  </si>
+  <si>
+    <t>MAIPÚ</t>
+  </si>
+  <si>
+    <t>CHILLÁN</t>
+  </si>
+  <si>
+    <t>CONCEPCIÓN</t>
+  </si>
+  <si>
+    <t>ANCÚD</t>
+  </si>
+  <si>
+    <t>Porcentaje_avance_actividades</t>
   </si>
 </sst>
 </file>
@@ -532,10 +559,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:O31"/>
+  <dimension ref="A1:P31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D10" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
-      <selection sqref="A1:O31"/>
+    <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -548,18 +575,19 @@
     <col min="6" max="6" width="11.7265625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.81640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20.1796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.7265625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.36328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.54296875" customWidth="1"/>
-    <col min="14" max="14" width="10.1796875" customWidth="1"/>
-    <col min="15" max="15" width="8" customWidth="1"/>
+    <col min="9" max="9" width="20.1796875" customWidth="1"/>
+    <col min="10" max="10" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.54296875" customWidth="1"/>
+    <col min="15" max="15" width="10.1796875" customWidth="1"/>
+    <col min="16" max="16" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -568,13 +596,13 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>3</v>
@@ -583,28 +611,31 @@
         <v>4</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="N1" s="1" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -629,29 +660,32 @@
       <c r="H2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="2">
-        <v>600</v>
+      <c r="I2" s="2">
+        <v>100</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="K2" s="2">
+        <v>20</v>
+      </c>
+      <c r="L2" s="2">
         <v>20000</v>
       </c>
-      <c r="L2" s="2">
+      <c r="M2" s="2">
         <v>10</v>
       </c>
-      <c r="M2" t="s">
-        <v>71</v>
-      </c>
       <c r="N2" t="s">
-        <v>76</v>
-      </c>
-      <c r="O2" s="2">
+        <v>61</v>
+      </c>
+      <c r="O2" t="s">
+        <v>66</v>
+      </c>
+      <c r="P2" s="2">
         <v>2020</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -659,46 +693,49 @@
         <v>10</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D3" s="3">
         <v>50</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F3" s="3">
         <v>45</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="2">
-        <v>350</v>
+      <c r="I3" s="2">
+        <v>100</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="K3" s="2">
+        <v>10</v>
+      </c>
+      <c r="L3" s="2">
         <v>8000</v>
       </c>
-      <c r="L3" s="2">
+      <c r="M3" s="2">
         <v>7</v>
       </c>
-      <c r="M3" t="s">
-        <v>72</v>
-      </c>
       <c r="N3" t="s">
-        <v>77</v>
-      </c>
-      <c r="O3" s="2">
+        <v>62</v>
+      </c>
+      <c r="O3" t="s">
+        <v>67</v>
+      </c>
+      <c r="P3" s="2">
         <v>2020</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -706,328 +743,349 @@
         <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D4" s="3">
         <v>150</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F4" s="3">
         <v>75</v>
       </c>
       <c r="G4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="2">
+        <v>100</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K4" s="2">
+        <v>40</v>
+      </c>
+      <c r="L4" s="2">
+        <v>12000</v>
+      </c>
+      <c r="M4" s="2">
+        <v>8</v>
+      </c>
+      <c r="N4" t="s">
+        <v>64</v>
+      </c>
+      <c r="O4" t="s">
+        <v>68</v>
+      </c>
+      <c r="P4" s="2">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="J4" s="2">
-        <v>1000</v>
-      </c>
-      <c r="K4" s="2">
-        <v>12000</v>
-      </c>
-      <c r="L4" s="2">
-        <v>8</v>
-      </c>
-      <c r="M4" t="s">
-        <v>74</v>
-      </c>
-      <c r="N4" t="s">
-        <v>78</v>
-      </c>
-      <c r="O4" s="2">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="D5" s="3">
         <v>200</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F5" s="3">
         <v>120</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J5" s="2">
-        <v>2500</v>
+        <v>28</v>
+      </c>
+      <c r="I5" s="2">
+        <v>100</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>73</v>
       </c>
       <c r="K5" s="2">
+        <v>70</v>
+      </c>
+      <c r="L5" s="2">
         <v>18000</v>
       </c>
-      <c r="L5" s="2">
+      <c r="M5" s="2">
         <v>12</v>
       </c>
-      <c r="M5" t="s">
-        <v>73</v>
-      </c>
       <c r="N5" t="s">
-        <v>79</v>
-      </c>
-      <c r="O5" s="2">
+        <v>63</v>
+      </c>
+      <c r="O5" t="s">
+        <v>69</v>
+      </c>
+      <c r="P5" s="2">
         <v>2020</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D6" s="3">
         <v>80</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F6" s="3">
         <v>40</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="J6" s="2">
-        <v>700</v>
+        <v>32</v>
+      </c>
+      <c r="I6" s="2">
+        <v>90</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="K6" s="2">
+        <v>15</v>
+      </c>
+      <c r="L6" s="2">
         <v>6500</v>
       </c>
-      <c r="L6" s="2">
+      <c r="M6" s="2">
         <v>6</v>
       </c>
-      <c r="M6" t="s">
-        <v>75</v>
-      </c>
       <c r="N6" t="s">
-        <v>76</v>
-      </c>
-      <c r="O6" s="2">
+        <v>65</v>
+      </c>
+      <c r="O6" t="s">
+        <v>66</v>
+      </c>
+      <c r="P6" s="2">
         <v>2020</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D7" s="3">
         <v>120</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F7" s="3">
         <v>70</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J7" s="2">
-        <v>1500</v>
+        <v>36</v>
+      </c>
+      <c r="I7" s="2">
+        <v>100</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="K7" s="2">
+        <v>25</v>
+      </c>
+      <c r="L7" s="2">
         <v>6000</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>6</v>
       </c>
-      <c r="M7" t="s">
-        <v>71</v>
-      </c>
       <c r="N7" t="s">
-        <v>77</v>
-      </c>
-      <c r="O7" s="2">
+        <v>61</v>
+      </c>
+      <c r="O7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P7" s="2">
         <v>2020</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D8" s="3">
         <v>45</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F8" s="3">
         <v>40</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="J8" s="2">
-        <v>700</v>
+        <v>42</v>
+      </c>
+      <c r="I8" s="2">
+        <v>100</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="K8" s="2">
+        <v>10</v>
+      </c>
+      <c r="L8" s="2">
         <v>5000</v>
       </c>
-      <c r="L8" s="2">
+      <c r="M8" s="2">
         <v>6</v>
       </c>
-      <c r="M8" t="s">
-        <v>72</v>
-      </c>
       <c r="N8" t="s">
-        <v>78</v>
-      </c>
-      <c r="O8" s="2">
+        <v>62</v>
+      </c>
+      <c r="O8" t="s">
+        <v>68</v>
+      </c>
+      <c r="P8" s="2">
         <v>2020</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="D9" s="3">
         <v>75</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F9" s="3">
         <v>44</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="J9" s="2">
-        <v>750</v>
+        <v>46</v>
+      </c>
+      <c r="I9" s="2">
+        <v>100</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="K9" s="2">
+        <v>20</v>
+      </c>
+      <c r="L9" s="2">
         <v>5000</v>
       </c>
-      <c r="L9" s="2">
+      <c r="M9" s="2">
         <v>7</v>
       </c>
-      <c r="M9" t="s">
-        <v>74</v>
-      </c>
       <c r="N9" t="s">
-        <v>79</v>
-      </c>
-      <c r="O9" s="2">
+        <v>64</v>
+      </c>
+      <c r="O9" t="s">
+        <v>69</v>
+      </c>
+      <c r="P9" s="2">
         <v>2020</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D10" s="3">
         <v>300</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F10" s="3">
         <v>200</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="J10" s="2">
-        <v>3500</v>
+        <v>50</v>
+      </c>
+      <c r="I10" s="2">
+        <v>100</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="K10" s="2">
+        <v>70</v>
+      </c>
+      <c r="L10" s="2">
         <v>25000</v>
       </c>
-      <c r="L10" s="2">
+      <c r="M10" s="2">
         <v>15</v>
       </c>
-      <c r="M10" t="s">
-        <v>73</v>
-      </c>
       <c r="N10" t="s">
-        <v>76</v>
-      </c>
-      <c r="O10" s="2">
+        <v>63</v>
+      </c>
+      <c r="O10" t="s">
+        <v>66</v>
+      </c>
+      <c r="P10" s="2">
         <v>2020</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
@@ -1035,46 +1093,49 @@
         <v>10</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="D11" s="3">
         <v>200</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="F11" s="3">
         <v>110</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="J11" s="2">
-        <v>1600</v>
+        <v>54</v>
+      </c>
+      <c r="I11" s="2">
+        <v>95</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="K11" s="2">
+        <v>30</v>
+      </c>
+      <c r="L11" s="2">
         <v>20000</v>
       </c>
-      <c r="L11" s="2">
+      <c r="M11" s="2">
         <v>12</v>
       </c>
-      <c r="M11" t="s">
-        <v>75</v>
-      </c>
       <c r="N11" t="s">
-        <v>77</v>
-      </c>
-      <c r="O11" s="2">
+        <v>65</v>
+      </c>
+      <c r="O11" t="s">
+        <v>67</v>
+      </c>
+      <c r="P11" s="2">
         <v>2020</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
@@ -1099,29 +1160,32 @@
       <c r="H12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J12" s="2">
-        <v>610</v>
+      <c r="I12" s="2">
+        <v>100</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="K12" s="2">
+        <v>30</v>
+      </c>
+      <c r="L12" s="2">
         <v>21000</v>
       </c>
-      <c r="L12" s="2">
+      <c r="M12" s="2">
         <v>10</v>
       </c>
-      <c r="M12" t="s">
-        <v>71</v>
-      </c>
       <c r="N12" t="s">
-        <v>76</v>
-      </c>
-      <c r="O12" s="2">
+        <v>61</v>
+      </c>
+      <c r="O12" t="s">
+        <v>66</v>
+      </c>
+      <c r="P12" s="2">
         <v>2021</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>9</v>
       </c>
@@ -1129,46 +1193,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D13" s="3">
         <v>65</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F13" s="3">
         <v>55</v>
       </c>
       <c r="G13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H13" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I13" s="2" t="s">
+      <c r="I13" s="2">
+        <v>100</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="K13" s="2">
         <v>20</v>
       </c>
-      <c r="J13" s="2">
-        <v>270</v>
-      </c>
-      <c r="K13" s="2">
+      <c r="L13" s="2">
         <v>8500</v>
       </c>
-      <c r="L13" s="2">
+      <c r="M13" s="2">
         <v>7</v>
       </c>
-      <c r="M13" t="s">
-        <v>72</v>
-      </c>
       <c r="N13" t="s">
-        <v>77</v>
-      </c>
-      <c r="O13" s="2">
+        <v>62</v>
+      </c>
+      <c r="O13" t="s">
+        <v>67</v>
+      </c>
+      <c r="P13" s="2">
         <v>2021</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>9</v>
       </c>
@@ -1176,328 +1243,349 @@
         <v>10</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D14" s="3">
         <v>170</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F14" s="3">
         <v>100</v>
       </c>
       <c r="G14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I14" s="2">
+        <v>100</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="K14" s="2">
+        <v>40</v>
+      </c>
+      <c r="L14" s="2">
+        <v>13500</v>
+      </c>
+      <c r="M14" s="2">
+        <v>8</v>
+      </c>
+      <c r="N14" t="s">
+        <v>64</v>
+      </c>
+      <c r="O14" t="s">
+        <v>68</v>
+      </c>
+      <c r="P14" s="2">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="B15" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="J14" s="2">
-        <v>1000</v>
-      </c>
-      <c r="K14" s="2">
-        <v>13500</v>
-      </c>
-      <c r="L14" s="2">
-        <v>8</v>
-      </c>
-      <c r="M14" t="s">
-        <v>74</v>
-      </c>
-      <c r="N14" t="s">
-        <v>78</v>
-      </c>
-      <c r="O14" s="2">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="D15" s="3">
         <v>230</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F15" s="3">
         <v>160</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J15" s="2">
-        <v>2550</v>
+        <v>28</v>
+      </c>
+      <c r="I15" s="2">
+        <v>100</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>73</v>
       </c>
       <c r="K15" s="2">
+        <v>50</v>
+      </c>
+      <c r="L15" s="2">
         <v>19000</v>
       </c>
-      <c r="L15" s="2">
+      <c r="M15" s="2">
         <v>12</v>
       </c>
-      <c r="M15" t="s">
-        <v>73</v>
-      </c>
       <c r="N15" t="s">
-        <v>79</v>
-      </c>
-      <c r="O15" s="2">
+        <v>63</v>
+      </c>
+      <c r="O15" t="s">
+        <v>69</v>
+      </c>
+      <c r="P15" s="2">
         <v>2021</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D16" s="3">
         <v>110</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F16" s="3">
         <v>60</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="J16" s="2">
-        <v>800</v>
+        <v>32</v>
+      </c>
+      <c r="I16" s="2">
+        <v>100</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>82</v>
       </c>
       <c r="K16" s="2">
+        <v>15</v>
+      </c>
+      <c r="L16" s="2">
         <v>6700</v>
       </c>
-      <c r="L16" s="2">
+      <c r="M16" s="2">
         <v>6</v>
       </c>
-      <c r="M16" t="s">
-        <v>75</v>
-      </c>
       <c r="N16" t="s">
-        <v>76</v>
-      </c>
-      <c r="O16" s="2">
+        <v>65</v>
+      </c>
+      <c r="O16" t="s">
+        <v>66</v>
+      </c>
+      <c r="P16" s="2">
         <v>2021</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D17" s="3">
         <v>125</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F17" s="3">
         <v>110</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J17" s="2">
-        <v>1550</v>
+        <v>36</v>
+      </c>
+      <c r="I17" s="2">
+        <v>100</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="K17" s="2">
+        <v>45</v>
+      </c>
+      <c r="L17" s="2">
         <v>6500</v>
       </c>
-      <c r="L17" s="2">
+      <c r="M17" s="2">
         <v>6</v>
       </c>
-      <c r="M17" t="s">
-        <v>71</v>
-      </c>
       <c r="N17" t="s">
-        <v>77</v>
-      </c>
-      <c r="O17" s="2">
+        <v>61</v>
+      </c>
+      <c r="O17" t="s">
+        <v>67</v>
+      </c>
+      <c r="P17" s="2">
         <v>2021</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D18" s="3">
         <v>75</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F18" s="3">
         <v>40</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="J18" s="2">
-        <v>800</v>
+        <v>42</v>
+      </c>
+      <c r="I18" s="2">
+        <v>97</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="K18" s="2">
+        <v>23</v>
+      </c>
+      <c r="L18" s="2">
         <v>5500</v>
       </c>
-      <c r="L18" s="2">
+      <c r="M18" s="2">
         <v>6</v>
       </c>
-      <c r="M18" t="s">
-        <v>72</v>
-      </c>
       <c r="N18" t="s">
-        <v>78</v>
-      </c>
-      <c r="O18" s="2">
+        <v>62</v>
+      </c>
+      <c r="O18" t="s">
+        <v>68</v>
+      </c>
+      <c r="P18" s="2">
         <v>2021</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="D19" s="3">
         <v>70</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F19" s="3">
         <v>46</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="J19" s="2">
-        <v>850</v>
+        <v>46</v>
+      </c>
+      <c r="I19" s="2">
+        <v>100</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="K19" s="2">
+        <v>29</v>
+      </c>
+      <c r="L19" s="2">
         <v>6000</v>
       </c>
-      <c r="L19" s="2">
+      <c r="M19" s="2">
         <v>7</v>
       </c>
-      <c r="M19" t="s">
-        <v>74</v>
-      </c>
       <c r="N19" t="s">
-        <v>79</v>
-      </c>
-      <c r="O19" s="2">
+        <v>64</v>
+      </c>
+      <c r="O19" t="s">
+        <v>69</v>
+      </c>
+      <c r="P19" s="2">
         <v>2021</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D20" s="3">
         <v>350</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F20" s="3">
         <v>250</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="J20" s="2">
-        <v>4500</v>
+        <v>50</v>
+      </c>
+      <c r="I20" s="2">
+        <v>100</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="K20" s="2">
+        <v>80</v>
+      </c>
+      <c r="L20" s="2">
         <v>27000</v>
       </c>
-      <c r="L20" s="2">
+      <c r="M20" s="2">
         <v>15</v>
       </c>
-      <c r="M20" t="s">
-        <v>73</v>
-      </c>
       <c r="N20" t="s">
-        <v>76</v>
-      </c>
-      <c r="O20" s="2">
+        <v>63</v>
+      </c>
+      <c r="O20" t="s">
+        <v>66</v>
+      </c>
+      <c r="P20" s="2">
         <v>2021</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>9</v>
       </c>
@@ -1505,46 +1593,49 @@
         <v>10</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="D21" s="3">
         <v>200</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="F21" s="3">
         <v>110</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="J21" s="2">
-        <v>1600</v>
+        <v>54</v>
+      </c>
+      <c r="I21" s="2">
+        <v>100</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="K21" s="2">
+        <v>30</v>
+      </c>
+      <c r="L21" s="2">
         <v>20500</v>
       </c>
-      <c r="L21" s="2">
+      <c r="M21" s="2">
         <v>12</v>
       </c>
-      <c r="M21" t="s">
-        <v>75</v>
-      </c>
       <c r="N21" t="s">
-        <v>77</v>
-      </c>
-      <c r="O21" s="2">
+        <v>65</v>
+      </c>
+      <c r="O21" t="s">
+        <v>67</v>
+      </c>
+      <c r="P21" s="2">
         <v>2021</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>9</v>
       </c>
@@ -1569,29 +1660,32 @@
       <c r="H22" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I22" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J22" s="2">
-        <v>630</v>
+      <c r="I22" s="2">
+        <v>70</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="K22" s="2">
+        <v>45</v>
+      </c>
+      <c r="L22" s="2">
         <v>22000</v>
       </c>
-      <c r="L22" s="2">
+      <c r="M22" s="2">
         <v>10</v>
       </c>
-      <c r="M22" t="s">
-        <v>71</v>
-      </c>
       <c r="N22" t="s">
-        <v>76</v>
-      </c>
-      <c r="O22" s="2">
+        <v>61</v>
+      </c>
+      <c r="O22" t="s">
+        <v>66</v>
+      </c>
+      <c r="P22" s="2">
         <v>2022</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>9</v>
       </c>
@@ -1599,46 +1693,49 @@
         <v>10</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D23" s="3">
         <v>65</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F23" s="3">
         <v>60</v>
       </c>
       <c r="G23" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H23" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H23" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J23" s="2">
-        <v>270</v>
+      <c r="I23" s="2">
+        <v>65</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>80</v>
       </c>
       <c r="K23" s="2">
+        <v>15</v>
+      </c>
+      <c r="L23" s="2">
         <v>9300</v>
       </c>
-      <c r="L23" s="2">
+      <c r="M23" s="2">
         <v>7</v>
       </c>
-      <c r="M23" t="s">
-        <v>72</v>
-      </c>
       <c r="N23" t="s">
-        <v>77</v>
-      </c>
-      <c r="O23" s="2">
+        <v>62</v>
+      </c>
+      <c r="O23" t="s">
+        <v>67</v>
+      </c>
+      <c r="P23" s="2">
         <v>2022</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>9</v>
       </c>
@@ -1646,328 +1743,349 @@
         <v>10</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D24" s="3">
         <v>180</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F24" s="3">
         <v>130</v>
       </c>
       <c r="G24" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I24" s="2">
+        <v>80</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="K24" s="2">
+        <v>40</v>
+      </c>
+      <c r="L24" s="2">
+        <v>14000</v>
+      </c>
+      <c r="M24" s="2">
+        <v>8</v>
+      </c>
+      <c r="N24" t="s">
+        <v>64</v>
+      </c>
+      <c r="O24" t="s">
+        <v>68</v>
+      </c>
+      <c r="P24" s="2">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H24" s="2" t="s">
+      <c r="B25" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I24" s="2" t="s">
+      <c r="C25" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="J24" s="2">
-        <v>1030</v>
-      </c>
-      <c r="K24" s="2">
-        <v>14000</v>
-      </c>
-      <c r="L24" s="2">
-        <v>8</v>
-      </c>
-      <c r="M24" t="s">
-        <v>74</v>
-      </c>
-      <c r="N24" t="s">
-        <v>78</v>
-      </c>
-      <c r="O24" s="2">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="D25" s="3">
         <v>220</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F25" s="3">
         <v>170</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J25" s="2">
-        <v>2500</v>
+        <v>28</v>
+      </c>
+      <c r="I25" s="2">
+        <v>60</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>73</v>
       </c>
       <c r="K25" s="2">
+        <v>60</v>
+      </c>
+      <c r="L25" s="2">
         <v>20000</v>
       </c>
-      <c r="L25" s="2">
+      <c r="M25" s="2">
         <v>12</v>
       </c>
-      <c r="M25" t="s">
-        <v>73</v>
-      </c>
       <c r="N25" t="s">
-        <v>79</v>
-      </c>
-      <c r="O25" s="2">
+        <v>63</v>
+      </c>
+      <c r="O25" t="s">
+        <v>69</v>
+      </c>
+      <c r="P25" s="2">
         <v>2022</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D26" s="3">
         <v>130</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F26" s="3">
         <v>70</v>
       </c>
       <c r="G26" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I26" s="2">
+        <v>68</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="K26" s="2">
         <v>35</v>
       </c>
-      <c r="H26" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="J26" s="2">
-        <v>810</v>
-      </c>
-      <c r="K26" s="2">
+      <c r="L26" s="2">
         <v>7000</v>
       </c>
-      <c r="L26" s="2">
+      <c r="M26" s="2">
         <v>6</v>
       </c>
-      <c r="M26" t="s">
-        <v>75</v>
-      </c>
       <c r="N26" t="s">
-        <v>76</v>
-      </c>
-      <c r="O26" s="2">
+        <v>65</v>
+      </c>
+      <c r="O26" t="s">
+        <v>66</v>
+      </c>
+      <c r="P26" s="2">
         <v>2022</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D27" s="3">
         <v>140</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F27" s="3">
         <v>130</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J27" s="2">
-        <v>1600</v>
+        <v>36</v>
+      </c>
+      <c r="I27" s="2">
+        <v>79</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="K27" s="2">
+        <v>60</v>
+      </c>
+      <c r="L27" s="2">
         <v>6700</v>
       </c>
-      <c r="L27" s="2">
+      <c r="M27" s="2">
         <v>6</v>
       </c>
-      <c r="M27" t="s">
-        <v>71</v>
-      </c>
       <c r="N27" t="s">
-        <v>77</v>
-      </c>
-      <c r="O27" s="2">
+        <v>61</v>
+      </c>
+      <c r="O27" t="s">
+        <v>67</v>
+      </c>
+      <c r="P27" s="2">
         <v>2022</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D28" s="3">
         <v>75</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F28" s="3">
         <v>50</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="J28" s="2">
-        <v>790</v>
+        <v>42</v>
+      </c>
+      <c r="I28" s="2">
+        <v>90</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="K28" s="2">
+        <v>20</v>
+      </c>
+      <c r="L28" s="2">
         <v>5700</v>
       </c>
-      <c r="L28" s="2">
+      <c r="M28" s="2">
         <v>6</v>
       </c>
-      <c r="M28" t="s">
-        <v>72</v>
-      </c>
       <c r="N28" t="s">
-        <v>78</v>
-      </c>
-      <c r="O28" s="2">
+        <v>62</v>
+      </c>
+      <c r="O28" t="s">
+        <v>68</v>
+      </c>
+      <c r="P28" s="2">
         <v>2022</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="D29" s="3">
         <v>60</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F29" s="3">
         <v>50</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="J29" s="2">
-        <v>860</v>
+        <v>46</v>
+      </c>
+      <c r="I29" s="2">
+        <v>87</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="K29" s="2">
+        <v>25</v>
+      </c>
+      <c r="L29" s="2">
         <v>6400</v>
       </c>
-      <c r="L29" s="2">
+      <c r="M29" s="2">
         <v>7</v>
       </c>
-      <c r="M29" t="s">
-        <v>74</v>
-      </c>
       <c r="N29" t="s">
-        <v>79</v>
-      </c>
-      <c r="O29" s="2">
+        <v>64</v>
+      </c>
+      <c r="O29" t="s">
+        <v>69</v>
+      </c>
+      <c r="P29" s="2">
         <v>2022</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D30" s="3">
         <v>350</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F30" s="3">
         <v>300</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="H30" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I30" s="2">
         <v>58</v>
       </c>
-      <c r="I30" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="J30" s="2">
-        <v>4700</v>
+      <c r="J30" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="K30" s="2">
+        <v>90</v>
+      </c>
+      <c r="L30" s="2">
         <v>28000</v>
       </c>
-      <c r="L30" s="2">
+      <c r="M30" s="2">
         <v>15</v>
       </c>
-      <c r="M30" t="s">
-        <v>73</v>
-      </c>
       <c r="N30" t="s">
-        <v>76</v>
-      </c>
-      <c r="O30" s="2">
+        <v>63</v>
+      </c>
+      <c r="O30" t="s">
+        <v>66</v>
+      </c>
+      <c r="P30" s="2">
         <v>2022</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>9</v>
       </c>
@@ -1975,42 +2093,45 @@
         <v>10</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="D31" s="3">
         <v>200</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="F31" s="3">
         <v>130</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="J31" s="2">
-        <v>1600</v>
+        <v>54</v>
+      </c>
+      <c r="I31" s="2">
+        <v>75</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="K31" s="2">
+        <v>70</v>
+      </c>
+      <c r="L31" s="2">
         <v>21000</v>
       </c>
-      <c r="L31" s="2">
+      <c r="M31" s="2">
         <v>12</v>
       </c>
-      <c r="M31" t="s">
-        <v>75</v>
-      </c>
       <c r="N31" t="s">
-        <v>77</v>
-      </c>
-      <c r="O31" s="2">
+        <v>65</v>
+      </c>
+      <c r="O31" t="s">
+        <v>67</v>
+      </c>
+      <c r="P31" s="2">
         <v>2022</v>
       </c>
     </row>
